--- a/cos_with_describe_end.xlsx
+++ b/cos_with_describe_end.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\202310_来場者\NTT Com DD株式会社\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\twoyear\クラウドコンピューティング応用\st_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D21E96-F5CC-4217-A615-09F95B5E81A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB5E9AB-D0DE-41F3-B953-E377E06EA02B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="222">
   <si>
     <t>出展社名</t>
   </si>
@@ -1100,28 +1094,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1130,2508 +1124,2034 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>69</v>
-      </c>
-      <c r="C2">
-        <v>113</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.85</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.85</v>
-      </c>
-      <c r="J2">
         <v>2628.3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
         <v>651.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="C4">
-        <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.7</v>
-      </c>
-      <c r="J4">
         <v>288.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>115</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.7</v>
-      </c>
-      <c r="J5">
         <v>6174</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="F6">
+        <v>0.85</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.85</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
         <v>256.89999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>934.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
         <v>1807.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>443.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
         <v>316.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>65</v>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
         <v>113.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>69</v>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>62</v>
-      </c>
-      <c r="C13">
-        <v>70</v>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>74.600000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>63</v>
-      </c>
-      <c r="C14">
-        <v>71</v>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
         <v>219.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>64</v>
-      </c>
-      <c r="C15">
-        <v>72</v>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>27.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>66</v>
-      </c>
-      <c r="C16">
-        <v>82</v>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>120.2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>65</v>
-      </c>
-      <c r="C17">
-        <v>78</v>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
         <v>83.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>67</v>
-      </c>
-      <c r="C18">
-        <v>91</v>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
         <v>763.6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>68</v>
-      </c>
-      <c r="C19">
-        <v>99</v>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
         <v>243.1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.1</v>
-      </c>
-      <c r="J20">
         <v>1303</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.1</v>
-      </c>
-      <c r="J21">
         <v>1200.2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>48</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.8</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
         <v>852.2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <v>36</v>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
         <v>6829.3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
         <v>340.9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.7</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
         <v>330.6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
         <v>814.90000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
         <v>162.69999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>26</v>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
         <v>377.4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <v>46</v>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
         <v>687.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>56</v>
-      </c>
-      <c r="C31">
-        <v>57</v>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
         <v>6254.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
         <v>2038.8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
         <v>163.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
         <v>121.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>35</v>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
         <v>3600.7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>37</v>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
         <v>214.8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>38</v>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
         <v>125.8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>18</v>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="F38">
+        <v>0.4</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
         <v>3737</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>59</v>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.4</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
         <v>7836.3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>43</v>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="F40">
+        <v>0.3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.3</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
         <v>760.4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>30</v>
-      </c>
-      <c r="C41">
-        <v>30</v>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.2</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
         <v>1454.5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="F42">
+        <v>0.2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.2</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
         <v>697.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <v>34</v>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
         <v>244.6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
         <v>5866.7000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
         <v>3127.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
         <v>13911.6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
         <v>16821.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
         <v>472.8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
         <v>912.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>12</v>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
         <v>272.89999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <v>13</v>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
         <v>515.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>14</v>
-      </c>
-      <c r="C52">
-        <v>14</v>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
         <v>332.4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>17</v>
-      </c>
-      <c r="C53">
-        <v>17</v>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
         <v>915.6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>20</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
         <v>4417.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>21</v>
-      </c>
-      <c r="C55">
-        <v>21</v>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
         <v>692.5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>22</v>
-      </c>
-      <c r="C56">
-        <v>22</v>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
         <v>168.9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>23</v>
-      </c>
-      <c r="C57">
-        <v>23</v>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
         <v>1144.8</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>24</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
         <v>160.1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>25</v>
-      </c>
-      <c r="C59">
-        <v>25</v>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
         <v>49.2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <v>27</v>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
         <v>304.89999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>28</v>
-      </c>
-      <c r="C61">
-        <v>28</v>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
         <v>86.2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>40</v>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
         <v>133.4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>41</v>
-      </c>
-      <c r="C63">
-        <v>41</v>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" t="s">
-        <v>130</v>
-      </c>
-      <c r="G63" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
         <v>174.7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>42</v>
-      </c>
-      <c r="C64">
-        <v>42</v>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
-      </c>
-      <c r="F64" t="s">
-        <v>131</v>
-      </c>
-      <c r="G64" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>44</v>
-      </c>
-      <c r="C65">
-        <v>44</v>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" t="s">
-        <v>132</v>
-      </c>
-      <c r="G65" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
         <v>2129.9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>45</v>
-      </c>
-      <c r="C66">
-        <v>45</v>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
         <v>589.79999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>47</v>
-      </c>
-      <c r="C67">
-        <v>47</v>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
         <v>1269</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>50</v>
-      </c>
-      <c r="C68">
-        <v>51</v>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G68" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
         <v>654.5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>51</v>
-      </c>
-      <c r="C69">
-        <v>52</v>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
         <v>2046.2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>52</v>
-      </c>
-      <c r="C70">
-        <v>53</v>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" t="s">
-        <v>137</v>
-      </c>
-      <c r="G70" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
         <v>3087.3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>53</v>
-      </c>
-      <c r="C71">
-        <v>54</v>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
         <v>2266.1999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>54</v>
-      </c>
-      <c r="C72">
-        <v>55</v>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
         <v>5391.3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>55</v>
-      </c>
-      <c r="C73">
-        <v>56</v>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
-      </c>
-      <c r="G73" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
         <v>868.6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>57</v>
-      </c>
-      <c r="C74">
-        <v>58</v>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" t="s">
-        <v>141</v>
-      </c>
-      <c r="G74" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
         <v>628.80000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>71</v>
-      </c>
-      <c r="C75">
-        <v>121</v>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
-      </c>
-      <c r="G75" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
         <v>47.2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>73</v>
-      </c>
-      <c r="C76">
-        <v>145</v>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F76" t="s">
-        <v>143</v>
-      </c>
-      <c r="G76" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>74</v>
-      </c>
-      <c r="C77">
-        <v>153</v>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
-      </c>
-      <c r="G77" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
         <v>97.600000000000009</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>75</v>
-      </c>
-      <c r="C78">
-        <v>196</v>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" t="s">
-        <v>145</v>
-      </c>
-      <c r="G78" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
         <v>70.600000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>76</v>
-      </c>
-      <c r="C79">
-        <v>207</v>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" t="s">
-        <v>146</v>
-      </c>
-      <c r="G79" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
         <v>0.4</v>
       </c>
     </row>

--- a/cos_with_describe_end.xlsx
+++ b/cos_with_describe_end.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\twoyear\クラウドコンピューティング応用\st_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\202310_来場者\NTT Com DD株式会社\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB5E9AB-D0DE-41F3-B953-E377E06EA02B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D21E96-F5CC-4217-A615-09F95B5E81A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
   <si>
     <t>出展社名</t>
   </si>
@@ -1094,28 +1100,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1124,2034 +1130,2508 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.85</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>2628.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>651.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.7</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>288.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.7</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>6174</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6">
         <v>0.85</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>256.89999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>934.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1807.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>443.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>316.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>156</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>113.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="B12">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
+      <c r="B13">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>74.600000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>219.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>27.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>161</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>120.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>83.7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
+      <c r="B18">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>763.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
+      <c r="B19">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>243.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>0.1</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1303</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0.1</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1200.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
+      <c r="B22">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22">
         <v>0.8</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>852.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>6829.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>340.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25">
         <v>0.7</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>330.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>171</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>814.90000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>172</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>162.69999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>221</v>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>172</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>172</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>377.4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>173</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>687.6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
+      <c r="B31">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>174</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>6254.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>175</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>2038.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>176</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>163.6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>177</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>121.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>3600.7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>179</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>214.8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+      <c r="B37">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>180</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>125.8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38">
         <v>0.4</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>3737</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
+      <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39">
         <v>0.4</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>7836.3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
+      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40">
         <v>0.3</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>760.4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41">
         <v>0.2</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>1454.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42">
         <v>0.2</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>697.2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43">
         <v>0.1</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>244.6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>5866.7000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>3127.7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>13911.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>45</v>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" t="s">
+        <v>190</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>16821.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" t="s">
+        <v>191</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>472.8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" t="s">
+        <v>192</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>912.1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>272.89999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>194</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>515.9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>195</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>332.4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" t="s">
-        <v>48</v>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>915.6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" t="s">
+        <v>197</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>4417.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" t="s">
+        <v>198</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>692.5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
+      <c r="B56">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" t="s">
+        <v>199</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>168.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
+        <v>200</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>1144.8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
-        <v>53</v>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>201</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>160.1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" t="s">
-        <v>54</v>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" t="s">
+        <v>202</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>49.2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>55</v>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" t="s">
+        <v>203</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>304.89999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
-        <v>19</v>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" t="s">
+        <v>204</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>86.2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
+      <c r="B62">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" t="s">
+        <v>205</v>
       </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>133.4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>57</v>
+      <c r="B63">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" t="s">
+        <v>206</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>174.7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" t="s">
-        <v>58</v>
+      <c r="B64">
+        <v>42</v>
+      </c>
+      <c r="C64">
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" t="s">
+        <v>207</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" t="s">
-        <v>59</v>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="C65">
+        <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="F65" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" t="s">
+        <v>208</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>2129.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
+      <c r="B66">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" t="s">
+        <v>209</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>589.79999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>60</v>
+      <c r="B67">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="F67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" t="s">
+        <v>210</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>1269</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>19</v>
+      <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" t="s">
+        <v>211</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>654.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>61</v>
+      <c r="B69">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="F69" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" t="s">
+        <v>212</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>2046.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
+      <c r="B70">
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F70" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" t="s">
+        <v>213</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>3087.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>63</v>
+      <c r="B71">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="F71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
+        <v>214</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>2266.1999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
+      <c r="B72">
+        <v>54</v>
+      </c>
+      <c r="C72">
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="F72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" t="s">
+        <v>215</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>5391.3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" t="s">
-        <v>65</v>
+      <c r="B73">
+        <v>55</v>
+      </c>
+      <c r="C73">
+        <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" t="s">
+        <v>216</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>868.6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" t="s">
-        <v>66</v>
+      <c r="B74">
+        <v>57</v>
+      </c>
+      <c r="C74">
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="F74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" t="s">
+        <v>217</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>628.80000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>67</v>
+      <c r="B75">
+        <v>71</v>
+      </c>
+      <c r="C75">
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" t="s">
+        <v>218</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>47.2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="F76" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" t="s">
+        <v>219</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" t="s">
-        <v>48</v>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G77" t="s">
+        <v>220</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>97.600000000000009</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="F78" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" t="s">
+        <v>221</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
         <v>70.600000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s">
-        <v>69</v>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79">
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="F79" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" t="s">
+        <v>222</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>0.4</v>
       </c>
     </row>
